--- a/final_repo_list_for_analysis.xlsx
+++ b/final_repo_list_for_analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/souradippal/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/souradippal/Downloads/PTM-Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E2CF5A-FF2A-9946-9FD3-41E4AF4A5D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A9B39A-212D-6847-8DB0-4D337EA89167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1240" windowWidth="27640" windowHeight="16740" xr2:uid="{30D38CE5-F288-EA4A-A5B8-6E7EE7F18541}"/>
+    <workbookView xWindow="1080" yWindow="1160" windowWidth="27640" windowHeight="16740" xr2:uid="{30D38CE5-F288-EA4A-A5B8-6E7EE7F18541}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -272,7 +272,7 @@
     <t>github.com/apache/beam</t>
   </si>
   <si>
-    <t>['README.md', 'assign_milestone.yml', 'beam_CancelStaleDataflowJobs.yml', 'beam_CleanUpDataprocResources.yml', 'beam_CleanUpGCPResources.yml', 'beam_CleanUpPrebuiltSDKImages.yml', 'beam_CloudML_Benchmarks_Dataflow.yml', 'beam_IODatastoresCredentialsRotation.yml', 'beam_Inference_Python_Benchmarks_Dataflow.yml', 'beam_Java_JMH.yml', 'beam_Java_LoadTests_Combine_Smoke.yml', 'beam_LoadTests_Go_CoGBK_Dataflow_Batch.yml', 'beam_LoadTests_Go_CoGBK_Flink_batch.yml', 'beam_LoadTests_Go_Combine_Dataflow_Batch.yml', 'beam_LoadTests_Go_Combine_Flink_Batch.yml', 'beam_LoadTests_Go_GBK_Dataflow_Batch.yml', 'beam_LoadTests_Go_GBK_Flink_Batch.yml', 'beam_LoadTests_Go_ParDo_Dataflow_Batch.yml', 'beam_LoadTests_Go_ParDo_Flink_Batch.yml', 'beam_LoadTests_Go_SideInput_Dataflow_Batch.yml', 'beam_LoadTests_Go_SideInput_Flink_Batch.yml', 'beam_LoadTests_Java_CoGBK_Dataflow_Batch.yml', 'beam_LoadTests_Java_CoGBK_Dataflow_Streaming.yml', 'beam_LoadTests_Java_CoGBK_Dataflow_V2_Batch_JavaVersions.yml', 'beam_LoadTests_Java_CoGBK_Dataflow_V2_Streaming_JavaVersions.yml', 'beam_LoadTests_Java_CoGBK_SparkStructuredStreaming_Batch.yml', 'beam_LoadTests_Java_Combine_Dataflow_Batch.yml', 'beam_LoadTests_Java_Combine_Dataflow_Streaming.yml', 'beam_LoadTests_Java_Combine_SparkStructuredStreaming_Batch.yml', 'beam_LoadTests_Java_GBK_Dataflow_Batch.yml', 'beam_LoadTests_Java_GBK_Dataflow_Streaming.yml', 'beam_LoadTests_Java_GBK_Dataflow_V2_Batch_Java11.yml', 'beam_LoadTests_Java_GBK_Dataflow_V2_Batch_Java17.yml', 'beam_LoadTests_Java_GBK_Dataflow_V2_Streaming_Java11.yml', 'beam_LoadTests_Java_GBK_Dataflow_V2_Streaming_Java17.yml', 'beam_LoadTests_Java_GBK_Smoke.yml', 'beam_LoadTests_Java_GBK_SparkStructuredStreaming_Batch.yml', 'beam_LoadTests_Java_ParDo_Dataflow_Batch.yml', 'beam_LoadTests_Java_ParDo_Dataflow_Streaming.yml', 'beam_LoadTests_Java_ParDo_Dataflow_V2_Batch_JavaVersions.yml', 'beam_LoadTests_Java_ParDo_Dataflow_V2_Streaming_JavaVersions.yml', 'beam_LoadTests_Java_ParDo_SparkStructuredStreaming_Batch.yml', 'beam_LoadTests_Python_CoGBK_Dataflow_Batch.yml', 'beam_LoadTests_Python_CoGBK_Dataflow_Streaming.yml', 'beam_LoadTests_Python_CoGBK_Flink_Batch.yml', 'beam_LoadTests_Python_Combine_Dataflow_Batch.yml', 'beam_LoadTests_Python_Combine_Dataflow_Streaming.yml', 'beam_LoadTests_Python_Combine_Flink_Batch.yml', 'beam_LoadTests_Python_Combine_Flink_Streaming.yml', 'beam_LoadTests_Python_FnApiRunner_Microbenchmark.yml', 'beam_LoadTests_Python_GBK_Dataflow_Batch.yml', 'beam_LoadTests_Python_GBK_Dataflow_Streaming.yml', 'beam_LoadTests_Python_GBK_Flink_Batch.yml', 'beam_LoadTests_Python_GBK_reiterate_Dataflow_Batch.yml', 'beam_LoadTests_Python_GBK_reiterate_Dataflow_Streaming.yml', 'beam_LoadTests_Python_ParDo_Dataflow_Batch.yml', 'beam_LoadTests_Python_ParDo_Dataflow_Streaming.yml', 'beam_LoadTests_Python_ParDo_Flink_Batch.yml', 'beam_LoadTests_Python_ParDo_Flink_Streaming.yml', 'beam_LoadTests_Python_SideInput_Dataflow_Batch.yml', 'beam_LoadTests_Python_Smoke.yml', 'beam_MetricsCredentialsRotation.yml', 'beam_Metrics_Report.yml', 'beam_PerformanceTests_AvroIOIT.yml', 'beam_PerformanceTests_AvroIOIT_HDFS.yml', 'beam_PerformanceTests_BigQueryIO_Batch_Java_Avro.yml', 'beam_PerformanceTests_BigQueryIO_Batch_Java_Json.yml', 'beam_PerformanceTests_BigQueryIO_Streaming_Java.yml', 'beam_PerformanceTests_BiqQueryIO_Read_Python.yml', 'beam_PerformanceTests_BiqQueryIO_Write_Python_Batch.yml', 'beam_PerformanceTests_Cdap.yml', 'beam_PerformanceTests_Compressed_TextIOIT.yml', 'beam_PerformanceTests_Compressed_TextIOIT_HDFS.yml', 'beam_PerformanceTests_HadoopFormat.yml', 'beam_PerformanceTests_JDBC.yml', 'beam_PerformanceTests_Kafka_IO.yml', 'beam_PerformanceTests_ManyFiles_TextIOIT.yml', 'beam_PerformanceTests_ManyFiles_TextIOIT_HDFS.yml', 'beam_PerformanceTests_MongoDBIO_IT.yml', 'beam_PerformanceTests_ParquetIOIT.yml', 'beam_PerformanceTests_ParquetIOIT_HDFS.yml', 'beam_PerformanceTests_PubsubIOIT_Python_Streaming.yml', 'beam_PerformanceTests_SQLBigQueryIO_Batch_Java.yml', 'beam_PerformanceTests_SingleStoreIO.yml', 'beam_PerformanceTests_SpannerIO_Read_2GB_Python.yml', 'beam_PerformanceTests_SpannerIO_Write_2GB_Python_Batch.yml', 'beam_PerformanceTests_SparkReceiver_IO.yml', 'beam_PerformanceTests_TFRecordIOIT.yml', 'beam_PerformanceTests_TFRecordIOIT_HDFS.yml', 'beam_PerformanceTests_TextIOIT.yml', 'beam_PerformanceTests_TextIOIT_HDFS.yml', 'beam_PerformanceTests_TextIOIT_Python.yml', 'beam_PerformanceTests_WordCountIT_PythonVersions.yml', 'beam_PerformanceTests_XmlIOIT.yml', 'beam_PerformanceTests_XmlIOIT_HDFS.yml', 'beam_PerformanceTests_xlang_KafkaIO_Python.yml', 'beam_Playground_CI_Nightly.yml', 'beam_PostCommit_Go.yml', 'beam_PostCommit_Go_Dataflow_ARM.yml', 'beam_PostCommit_Go_VR_Flink.yml', 'beam_PostCommit_Go_VR_Samza.yml', 'beam_PostCommit_Go_VR_Spark.yml', 'beam_PostCommit_Java.yml', 'beam_PostCommit_Java_Avro_Versions.yml', 'beam_PostCommit_Java_BigQueryEarlyRollout.yml', 'beam_PostCommit_Java_DataflowV1.yml', 'beam_PostCommit_Java_DataflowV2.yml', 'beam_PostCommit_Java_Examples_Dataflow.yml', 'beam_PostCommit_Java_Examples_Dataflow_ARM.yml', 'beam_PostCommit_Java_Examples_Dataflow_Java.yml', 'beam_PostCommit_Java_Examples_Dataflow_V2.yml', 'beam_PostCommit_Java_Examples_Dataflow_V2_Java.yml', 'beam_PostCommit_Java_Examples_Direct.yml', 'beam_PostCommit_Java_Examples_Flink.yml', 'beam_PostCommit_Java_Examples_Spark.yml', 'beam_PostCommit_Java_Hadoop_Versions.yml', 'beam_PostCommit_Java_IO_Performance_Tests.yml', 'beam_PostCommit_Java_InfluxDbIO_IT.yml', 'beam_PostCommit_Java_Jpms_Dataflow_Java11.yml', 'beam_PostCommit_Java_Jpms_Dataflow_Java17.yml', 'beam_PostCommit_Java_Jpms_Direct_Java11.yml', 'beam_PostCommit_Java_Jpms_Direct_Java17.yml', 'beam_PostCommit_Java_Jpms_Direct_Java21.yml', 'beam_PostCommit_Java_Jpms_Flink_Java11.yml', 'beam_PostCommit_Java_Jpms_Spark_Java11.yml', 'beam_PostCommit_Java_Nexmark_Dataflow.yml', 'beam_PostCommit_Java_Nexmark_Dataflow_V2.yml', 'beam_PostCommit_Java_Nexmark_Dataflow_V2_Java.yml', 'beam_PostCommit_Java_Nexmark_Direct.yml', 'beam_PostCommit_Java_Nexmark_Flink.yml', 'beam_PostCommit_Java_Nexmark_Spark.yml', 'beam_PostCommit_Java_PVR_Flink_Streaming.yml', 'beam_PostCommit_Java_PVR_Samza.yml', 'beam_PostCommit_Java_PVR_Spark3_Streaming.yml', 'beam_PostCommit_Java_PVR_Spark_Batch.yml', 'beam_PostCommit_Java_Sickbay.yml', 'beam_PostCommit_Java_SingleStoreIO_IT.yml', 'beam_PostCommit_Java_Tpcds_Dataflow.yml', 'beam_PostCommit_Java_Tpcds_Flink.yml', 'beam_PostCommit_Java_Tpcds_Spark.yml', 'beam_PostCommit_Java_ValidatesRunner_Dataflow.yml', 'beam_PostCommit_Java_ValidatesRunner_Dataflow_JavaVersions.yml', 'beam_PostCommit_Java_ValidatesRunner_Dataflow_Streaming.yml', 'beam_PostCommit_Java_ValidatesRunner_Dataflow_V2.yml', 'beam_PostCommit_Java_ValidatesRunner_Dataflow_V2_Streaming.yml', 'beam_PostCommit_Java_ValidatesRunner_Direct.yml', 'beam_PostCommit_Java_ValidatesRunner_Direct_JavaVersions.yml', 'beam_PostCommit_Java_ValidatesRunner_Flink.yml', 'beam_PostCommit_Java_ValidatesRunner_Flink_Java11.yml', 'beam_PostCommit_Java_ValidatesRunner_Samza.yml', 'beam_PostCommit_Java_ValidatesRunner_Spark.yml', 'beam_PostCommit_Java_ValidatesRunner_SparkStructuredStreaming.yml', 'beam_PostCommit_Java_ValidatesRunner_Spark_Java11.yml', 'beam_PostCommit_Java_ValidatesRunner_Twister2.yml', 'beam_PostCommit_Java_ValidatesRunner_ULR.yml', 'beam_PostCommit_Javadoc.yml', 'beam_PostCommit_PortableJar_Flink.yml', 'beam_PostCommit_PortableJar_Spark.yml', 'beam_PostCommit_Python.yml', 'beam_PostCommit_Python_Arm.yml', 'beam_PostCommit_Python_Dependency.yml', 'beam_PostCommit_Python_Examples_Dataflow.yml', 'beam_PostCommit_Python_Examples_Direct.yml', 'beam_PostCommit_Python_Examples_Flink.yml', 'beam_PostCommit_Python_Examples_Spark.yml', 'beam_PostCommit_Python_MongoDBIO_IT.yml', 'beam_PostCommit_Python_Nexmark_Direct.yml', 'beam_PostCommit_Python_ValidatesContainer_Dataflow.yml', 'beam_PostCommit_Python_ValidatesContainer_Dataflow_With_RC.yml', 'beam_PostCommit_Python_ValidatesRunner_Dataflow.yml', 'beam_PostCommit_Python_ValidatesRunner_Flink.yml', 'beam_PostCommit_Python_ValidatesRunner_Samza.yml', 'beam_PostCommit_Python_ValidatesRunner_Spark.yml', 'beam_PostCommit_Python_Xlang_Gcp_Dataflow.yml', 'beam_PostCommit_Python_Xlang_Gcp_Direct.yml', 'beam_PostCommit_Python_Xlang_IO_Dataflow.yml', 'beam_PostCommit_SQL.yml', 'beam_PostCommit_Sickbay_Python.yml', 'beam_PostCommit_TransformService_Direct.yml', 'beam_PostCommit_Website_Test.yml', 'beam_PostCommit_XVR_Direct.yml', 'beam_PostCommit_XVR_Flink.yml', 'beam_PostCommit_XVR_GoUsingJava_Dataflow.yml', 'beam_PostCommit_XVR_JavaUsingPython_Dataflow.yml', 'beam_PostCommit_XVR_PythonUsingJavaSQL_Dataflow.yml', 'beam_PostCommit_XVR_PythonUsingJava_Dataflow.yml', 'beam_PostCommit_XVR_Samza.yml', 'beam_PostCommit_XVR_Spark3.yml', 'beam_PreCommit_CommunityMetrics.yml', 'beam_PreCommit_GHA.yml', 'beam_PreCommit_Go.yml', 'beam_PreCommit_GoPortable.yml', 'beam_PreCommit_GoPrism.yml', 'beam_PreCommit_ItFramework.yml', 'beam_PreCommit_Java.yml', 'beam_PreCommit_Java_Amazon-Web-Services2_IO_Direct.yml', 'beam_PreCommit_Java_Amazon-Web-Services_IO_Direct.yml', 'beam_PreCommit_Java_Amqp_IO_Direct.yml', 'beam_PreCommit_Java_Azure_IO_Direct.yml', 'beam_PreCommit_Java_Cassandra_IO_Direct.yml', 'beam_PreCommit_Java_Cdap_IO_Direct.yml', 'beam_PreCommit_Java_Clickhouse_IO_Direct.yml', 'beam_PreCommit_Java_Csv_IO_Direct.yml', 'beam_PreCommit_Java_Debezium_IO_Direct.yml', 'beam_PreCommit_Java_ElasticSearch_IO_Direct.yml', 'beam_PreCommit_Java_Examples_Dataflow.yml', 'beam_PreCommit_Java_Examples_Dataflow_Java21.yml', 'beam_PreCommit_Java_File-schema-transform_IO_Direct.yml', 'beam_PreCommit_Java_Flink_Versions.yml', 'beam_PreCommit_Java_GCP_IO_Direct.yml', 'beam_PreCommit_Java_Google-ads_IO_Direct.yml', 'beam_PreCommit_Java_HBase_IO_Direct.yml', 'beam_PreCommit_Java_HCatalog_IO_Direct.yml', 'beam_PreCommit_Java_Hadoop_IO_Direct.yml', 'beam_PreCommit_Java_IOs_Direct.yml', 'beam_PreCommit_Java_InfluxDb_IO_Direct.yml', 'beam_PreCommit_Java_JDBC_IO_Direct.yml', 'beam_PreCommit_Java_Jms_IO_Direct.yml', 'beam_PreCommit_Java_Kafka_IO_Direct.yml', 'beam_PreCommit_Java_Kinesis_IO_Direct.yml', 'beam_PreCommit_Java_Kudu_IO_Direct.yml', 'beam_PreCommit_Java_MongoDb_IO_Direct.yml', 'beam_PreCommit_Java_Mqtt_IO_Direct.yml', 'beam_PreCommit_Java_Neo4j_IO_Direct.yml', 'beam_PreCommit_Java_PVR_Flink_Batch.yml', 'beam_PreCommit_Java_PVR_Flink_Docker.yml', 'beam_PreCommit_Java_Parquet_IO_Direct.yml', 'beam_PreCommit_Java_Pulsar_IO_Direct.yml', 'beam_PreCommit_Java_RabbitMq_IO_Direct.yml', 'beam_PreCommit_Java_Redis_IO_Direct.yml', 'beam_PreCommit_Java_RequestResponse_IO_Direct.yml', 'beam_PreCommit_Java_SingleStore_IO_Direct.yml', 'beam_PreCommit_Java_Snowflake_IO_Direct.yml', 'beam_PreCommit_Java_Solr_IO_Direct.yml', 'beam_PreCommit_Java_Spark3_Versions.yml', 'beam_PreCommit_Java_Splunk_IO_Direct.yml', 'beam_PreCommit_Java_Thrift_IO_Direct.yml', 'beam_PreCommit_Java_Tika_IO_Direct.yml', 'beam_PreCommit_Kotlin_Examples.yml', 'beam_PreCommit_Portable_Python.yml', 'beam_PreCommit_Python.yml', 'beam_PreCommit_PythonDocker.yml', 'beam_PreCommit_PythonDocs.yml', 'beam_PreCommit_PythonFormatter.yml', 'beam_PreCommit_PythonLint.yml', 'beam_PreCommit_Python_Coverage.yml', 'beam_PreCommit_Python_Dataframes.yml', 'beam_PreCommit_Python_Examples.yml', 'beam_PreCommit_Python_Integration.yml', 'beam_PreCommit_Python_PVR_Flink.yml', 'beam_PreCommit_Python_Runners.yml', 'beam_PreCommit_Python_Transforms.yml', 'beam_PreCommit_SQL.yml', 'beam_PreCommit_SQL_Java11.yml', 'beam_PreCommit_SQL_Java17.yml', 'beam_PreCommit_Spotless.yml', 'beam_PreCommit_Typescript.yml', 'beam_PreCommit_Website.yml', 'beam_PreCommit_Website_Stage_GCS.yml', 'beam_PreCommit_Whitespace.yml', 'beam_PreCommit_Xlang_Generated_Transforms.yml', 'beam_Publish_BeamMetrics.yml', 'beam_Publish_Beam_SDK_Snapshots.yml', 'beam_Publish_Docker_Snapshots.yml', 'beam_Python_ValidatesContainer_Dataflow_ARM.yml', 'build_release_candidate.yml', 'build_runner_image.yml', 'build_wheels.yml', 'cancel.yml', 'code_completion_plugin_tests.yml', 'cut_release_branch.yml', 'dask_runner_tests.yml', 'finalize_release.yml', 'flaky_test_detection.yml', 'git_tag_released_version.yml', 'go_tests.yml', 'issue-tagger.yml', 'java_tests.yml', 'label_prs.yml', 'local_env_tests.yml', 'playground_backend_precommit.yml', 'playground_frontend_test.yml', 'pr-bot-new-prs.yml', 'pr-bot-pr-updates.yml', 'pr-bot-prs-needing-attention.yml', 'publish_github_release_notes.yml', 'python_dependency_tests.yml', 'python_tests.yml', 'reportGenerator.yml', 'run_perf_alert_tool.yml', 'run_rc_validation.yml', 'self-assign.yml', 'stale.yml', 'tour_of_beam_backend.yml', 'tour_of_beam_backend_integration.yml', 'tour_of_beam_frontend_test.yml', 'triaged-on-assign.yml', 'typescript_tests.yml', 'update_python_dependencies.yml']</t>
+    <t>['README.md', 'assign_milestone.yml', 'beam_CancelStaleDataflowJobs.yml', 'beam_CleanUpDataprocResources.yml', 'beam_CleanUpGCPResources.yml', 'beam_CleanUpPrebuiltSDKImages.yml', 'beam_CloudML_Benchmarks_Dataflow.yml', 'beam_IODatastoresCredentialsRotation.yml', 'beam_Inference_Python_Benchmarks_Dataflow.yml', 'beam_Java_JMH.yml', 'beam_Java_LoadTests_Combine_Smoke.yml', 'beam_LoadTests_Go_CoGBK_Dataflow_Batch.yml', 'beam_LoadTests_Go_CoGBK_Flink_batch.yml', 'beam_LoadTests_Go_Combine_Dataflow_Batch.yml', 'beam_LoadTests_Go_Combine_Flink_Batch.yml', 'beam_LoadTests_Go_GBK_Dataflow_Batch.yml', 'beam_LoadTests_Go_GBK_Flink_Batch.yml', 'beam_LoadTests_Go_ParDo_Dataflow_Batch.yml', 'beam_LoadTests_Go_ParDo_Flink_Batch.yml', 'beam_LoadTests_Go_SideInput_Dataflow_Batch.yml', 'beam_LoadTests_Go_SideInput_Flink_Batch.yml', 'beam_LoadTests_Java_CoGBK_Dataflow_Batch.yml', 'beam_LoadTests_Java_CoGBK_Dataflow_Streaming.yml', 'beam_LoadTests_Java_CoGBK_Dataflow_V2_Batch_JavaVersions.yml', 'beam_LoadTests_Java_CoGBK_Dataflow_V2_Streaming_JavaVersions.yml', 'beam_LoadTests_Java_CoGBK_SparkStructuredStreaming_Batch.yml', 'beam_LoadTests_Java_Combine_Dataflow_Batch.yml', 'beam_LoadTests_Java_Combine_Dataflow_Streaming.yml', 'beam_LoadTests_Java_Combine_SparkStructuredStreaming_Batch.yml', 'beam_LoadTests_Java_GBK_Dataflow_Batch.yml', 'beam_LoadTests_Java_GBK_Dataflow_Streaming.yml', 'beam_LoadTests_Java_GBK_Dataflow_V2_Batch_Java11.yml', 'beam_LoadTests_Java_GBK_Dataflow_V2_Batch_Java17.yml', 'beam_LoadTests_Java_GBK_Dataflow_V2_Streaming_Java11.yml', 'beam_LoadTests_Java_GBK_Dataflow_V2_Streaming_Java17.yml', 'beam_LoadTests_Java_GBK_Smoke.yml', 'beam_LoadTests_Java_GBK_SparkStructuredStreaming_Batch.yml', 'beam_LoadTests_Java_ParDo_Dataflow_Batch.yml', 'beam_LoadTests_Java_ParDo_Dataflow_Streaming.yml', 'beam_LoadTests_Java_ParDo_Dataflow_V2_Batch_JavaVersions.yml', 'beam_LoadTests_Java_ParDo_Dataflow_V2_Streaming_JavaVersions.yml', 'beam_LoadTests_Java_ParDo_SparkStructuredStreaming_Batch.yml', 'beam_LoadTests_Python_CoGBK_Dataflow_Batch.yml', 'beam_LoadTests_Python_CoGBK_Dataflow_Streaming.yml', 'beam_LoadTests_Python_CoGBK_Flink_Batch.yml', 'beam_LoadTests_Python_Combine_Dataflow_Batch.yml', 'beam_LoadTests_Python_Combine_Dataflow_Streaming.yml', 'beam_LoadTests_Python_Combine_Flink_Batch.yml', 'beam_LoadTests_Python_Combine_Flink_Streaming.yml', 'beam_LoadTests_Python_FnApiRunner_Microbenchmark.yml', 'beam_LoadTests_Python_GBK_Dataflow_Batch.yml', 'beam_LoadTests_Python_GBK_Dataflow_Streaming.yml', 'beam_LoadTests_Python_GBK_Flink_Batch.yml', 'beam_LoadTests_Python_GBK_reiterate_Dataflow_Batch.yml', 'beam_LoadTests_Python_GBK_reiterate_Dataflow_Streaming.yml', 'beam_LoadTests_Python_ParDo_Dataflow_Batch.yml', 'beam_LoadTests_Python_ParDo_Dataflow_Streaming.yml', 'beam_LoadTests_Python_ParDo_Flink_Batch.yml', 'beam_LoadTests_Python_ParDo_Flink_Streaming.yml', 'beam_LoadTests_Python_SideInput_Dataflow_Batch.yml', 'beam_LoadTests_Python_Smoke.yml', 'beam_MetricsCredentialsRotation.yml', 'beam_Metrics_Report.yml', 'beam_PerformanceTests_AvroIOIT.yml', 'beam_PerformanceTests_AvroIOIT_HDFS.yml', 'beam_PerformanceTests_BigQueryIO_Batch_Java_Avro.yml', 'beam_PerformanceTests_BigQueryIO_Batch_Java_Json.yml', 'beam_PerformanceTests_BigQueryIO_Streaming_Java.yml', 'beam_PerformanceTests_BiqQueryIO_Read_Python.yml', 'beam_PerformanceTests_BiqQueryIO_Write_Python_Batch.yml', 'beam_PerformanceTests_Cdap.yml', 'beam_PerformanceTests_Compressed_TextIOIT.yml', 'beam_PerformanceTests_Compressed_TextIOIT_HDFS.yml', 'beam_PerformanceTests_HadoopFormat.yml', 'beam_PerformanceTests_JDBC.yml', 'beam_PerformanceTests_Kafka_IO.yml', 'beam_PerformanceTests_ManyFiles_TextIOIT.yml', 'beam_PerformanceTests_ManyFiles_TextIOIT_HDFS.yml', 'beam_PerformanceTests_MongoDBIO_IT.yml', 'beam_PerformanceTests_ParquetIOIT.yml', 'beam_PerformanceTests_ParquetIOIT_HDFS.yml', 'beam_PerformanceTests_PubsubIOIT_Python_Streaming.yml', 'beam_PerformanceTests_SQLBigQueryIO_Batch_Java.yml', 'beam_PerformanceTests_SingleStoreIO.yml', 'beam_PerformanceTests_SpannerIO_Read_2GB_Python.yml', 'beam_PerformanceTests_SpannerIO_Write_2GB_Python_Batch.yml', 'beam_PerformanceTests_SparkReceiver_IO.yml', 'beam_PerformanceTests_TFRecordIOIT.yml', 'beam_PerformanceTests_TFRecordIOIT_HDFS.yml', 'beam_PerformanceTests_TextIOIT.yml', 'beam_PerformanceTests_TextIOIT_HDFS.yml', 'beam_PerformanceTests_TextIOIT_Python.yml', 'beam_PerformanceTests_WordCountIT_PythonVersions.yml', 'beam_PerformanceTests_XmlIOIT.yml', 'beam_PerformanceTests_XmlIOIT_HDFS.yml', 'beam_PerformanceTests_xlang_KafkaIO_Python.yml', 'beam_Playground_CI_Nightly.yml', 'beam_PostCommit_Go.yml', 'beam_PostCommit_Go_Dataflow_ARM.yml', 'beam_PostCommit_Go_VR_Flink.yml', 'beam_PostCommit_Go_VR_Samza.yml', 'beam_PostCommit_Go_VR_Spark.yml', 'beam_PostCommit_Java.yml', 'beam_PostCommit_Java_Avro_Versions.yml', 'beam_PostCommit_Java_BigQueryEarlyRollout.yml', 'beam_PostCommit_Java_DataflowV1.yml', 'beam_PostCommit_Java_DataflowV2.yml', 'beam_PostCommit_Java_Examples_Dataflow.yml', 'beam_PostCommit_Java_Examples_Dataflow_ARM.yml', 'beam_PostCommit_Java_Examples_Dataflow_Java.yml', 'beam_PostCommit_Java_Examples_Dataflow_V2.yml', 'beam_PostCommit_Java_Examples_Dataflow_V2_Java.yml', 'beam_PostCommit_Java_Examples_Direct.yml', 'beam_PostCommit_Java_Examples_Flink.yml', 'beam_PostCommit_Java_Examples_Spark.yml', 'beam_PostCommit_Java_Hadoop_Versions.yml', 'beam_PostCommit_Java_IO_Performance_Tests.yml', 'beam_PostCommit_Java_InfluxDbIO_IT.yml', 'beam_PostCommit_Java_Jpms_Dataflow_Java11.yml', 'beam_PostCommit_Java_Jpms_Dataflow_Java17.yml', 'beam_PostCommit_Java_Jpms_Direct_Java11.yml', 'beam_PostCommit_Java_Jpms_Direct_Java17.yml', 'beam_PostCommit_Java_Jpms_Direct_Java21.yml', 'beam_PostCommit_Java_Jpms_Flink_Java11.yml', 'beam_PostCommit_Java_Jpms_Spark_Java11.yml', 'beam_PostCommit_Java_Nexmark_Dataflow.yml', 'beam_PostCommit_Java_Nexmark_Dataflow_V2.yml', 'beam_PostCommit_Java_Nexmark_Dataflow_V2_Java.yml', 'beam_PostCommit_Java_Nexmark_Direct.yml', 'beam_PostCommit_Java_Nexmark_Flink.yml', 'beam_PostCommit_Java_Nexmark_Spark.yml', 'beam_PostCommit_Java_PVR_Flink_Streaming.yml', 'beam_PostCommit_Java_PVR_Samza.yml', 'beam_PostCommit_Java_PVR_Spark3_Streaming.yml', 'beam_PostCommit_Java_PVR_Spark_Batch.yml', 'beam_PostCommit_Java_Sickbay.yml', 'beam_PostCommit_Java_SingleStoreIO_IT.yml', 'beam_PostCommit_Java_Tpcds_Dataflow.yml', 'beam_PostCommit_Java_Tpcds_Flink.yml', 'beam_PostCommit_Java_Tpcds_Spark.yml', 'beam_PostCommit_Java_ValidatesRunner_Dataflow.yml', 'beam_PostCommit_Java_ValidatesRunner_Dataflow_JavaVersions.yml', 'beam_PostCommit_Java_ValidatesRunner_Dataflow_Streaming.yml', 'beam_PostCommit_Java_ValidatesRunner_Dataflow_V2.yml', 'beam_PostCommit_Java_ValidatesRunner_Dataflow_V2_Streaming.yml', 'beam_PostCommit_Java_ValidatesRunner_Direct.yml', 'beam_PostCommit_Java_ValidatesRunner_Direct_JavaVersions.yml', 'beam_PostCommit_Java_ValidatesRunner_Flink.yml', 'beam_PostCommit_Java_ValidatesRunner_Flink_Java11.yml', 'beam_PostCommit_Java_ValidatesRunner_Samza.yml', 'beam_PostCommit_Java_ValidatesRunner_Spark.yml', 'beam_PostCommit_Java_ValidatesRunner_SparkStructuredStreaming.yml', 'beam_PostCommit_Java_ValidatesRunner_Spark_Java11.yml', 'beam_PostCommit_Java_ValidatesRunner_Twister2.yml', 'beam_PostCommit_Java_ValidatesRunner_ULR.yml', 'beam_PostCommit_Javadoc.yml', 'beam_PostCommit_PortableJar_Flink.yml', 'beam_PostCommit_PortableJar_Spark.yml', 'beam_PostCommit_Python.yml', 'beam_PostCommit_Python_Arm.yml', 'beam_PostCommit_Python_Dependency.yml', 'beam_PostCommit_Python_Examples_Dataflow.yml', 'beam_PostCommit_Python_Examples_Direct.yml', 'beam_PostCommit_Python_Examples_Flink.yml', 'beam_PostCommit_Python_Examples_Spark.yml', 'beam_PostCommit_Python_MongoDBIO_IT.yml', 'beam_PostCommit_Python_Nexmark_Direct.yml', 'beam_PostCommit_Python_ValidatesContainer_Dataflow.yml', 'beam_PostCommit_Python_ValidatesContainer_Dataflow_With_RC.yml', 'beam_PostCommit_Python_ValidatesRunner_Dataflow.yml', 'beam_PostCommit_Python_ValidatesRunner_Flink.yml', 'beam_PostCommit_Python_ValidatesRunner_Samza.yml', 'beam_PostCommit_Python_ValidatesRunner_Spark.yml'</t>
   </si>
   <si>
     <t>github.com/huggingface/accelerate</t>
@@ -369,12 +369,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -398,8 +404,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,2092 +743,2094 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7ED30C-E04E-714F-B153-38CF820F3126}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="7" max="7" width="78.1640625" customWidth="1"/>
+    <col min="1" max="1" width="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>123796</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>434</v>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
         <v>30</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
+      <c r="H2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>81431</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>474</v>
       </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
         <v>16</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" t="b">
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>76549</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>364</v>
       </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" t="b">
+      <c r="H4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>55514</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>201</v>
       </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" t="b">
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>37649</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>169</v>
       </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
         <v>29</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>28</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" t="b">
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>30782</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>417</v>
       </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="D7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" t="b">
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>30336</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>478</v>
       </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
         <v>6</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>6</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" t="b">
+      <c r="H8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>28311</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>260</v>
       </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
         <v>13</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" t="b">
+      <c r="H9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>22188</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>472</v>
       </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
         <v>19</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>16</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" t="b">
+      <c r="H10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>21132</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>276</v>
       </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
         <v>11</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" t="b">
+      <c r="H11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>18314</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>448</v>
       </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
         <v>7</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>4</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" t="b">
+      <c r="H12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>17125</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>455</v>
       </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
         <v>41</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>34</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" t="b">
+      <c r="H13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>17049</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>61</v>
       </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
         <v>5</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>5</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" t="b">
+      <c r="H14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>13699</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>175</v>
       </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
         <v>2</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>2</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" t="b">
+      <c r="H15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>13422</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>228</v>
       </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
         <v>20</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>20</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" t="b">
+      <c r="H16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>12498</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>382</v>
       </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
         <v>17</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>16</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" t="b">
+      <c r="H17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>11297</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>250</v>
       </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
         <v>6</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>3</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" t="b">
+      <c r="H18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>11294</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>224</v>
       </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
         <v>23</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>23</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" t="b">
+      <c r="H19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>10747</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>143</v>
       </c>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
         <v>6</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>6</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" t="b">
-        <v>1</v>
-      </c>
-      <c r="M20" t="b">
+      <c r="H20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>10465</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>61</v>
       </c>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="D21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="b">
-        <v>1</v>
-      </c>
-      <c r="K21" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" t="b">
-        <v>0</v>
-      </c>
-      <c r="M21" t="b">
+      <c r="H21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>10420</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>191</v>
       </c>
-      <c r="D22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
         <v>2</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>2</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" t="b">
-        <v>1</v>
-      </c>
-      <c r="M22" t="b">
+      <c r="H22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>10056</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>70</v>
       </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
         <v>2</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" t="b">
-        <v>0</v>
-      </c>
-      <c r="M23" t="b">
+      <c r="H23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>9890</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>285</v>
       </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
         <v>10</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>9</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="b">
-        <v>0</v>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" t="b">
-        <v>0</v>
-      </c>
-      <c r="M24" t="b">
+      <c r="H24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>8582</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>22</v>
       </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="D25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H25" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" t="b">
-        <v>0</v>
-      </c>
-      <c r="M25" t="b">
+      <c r="H25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>8360</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>82</v>
       </c>
-      <c r="D26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="D26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" t="b">
+      <c r="H26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>8330</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>83</v>
       </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
         <v>14</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>9</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M27" t="b">
+      <c r="H27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>8089</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>124</v>
       </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="D28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" t="b">
-        <v>0</v>
-      </c>
-      <c r="M28" t="b">
+      <c r="H28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>7845</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>162</v>
       </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29">
+      <c r="D29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
         <v>10</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>7</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K29" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" t="b">
-        <v>0</v>
-      </c>
-      <c r="M29" t="b">
+      <c r="H29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>7807</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>96</v>
       </c>
-      <c r="D30" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
         <v>2</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>2</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K30" t="b">
-        <v>1</v>
-      </c>
-      <c r="L30" t="b">
-        <v>0</v>
-      </c>
-      <c r="M30" t="b">
+      <c r="H30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>7756</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>426</v>
       </c>
-      <c r="D31" t="b">
-        <v>1</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
         <v>5</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>4</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31" t="b">
+      <c r="H31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>7756</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>17</v>
       </c>
-      <c r="D32" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="D32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K32" t="b">
-        <v>1</v>
-      </c>
-      <c r="L32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M32" t="b">
+      <c r="H32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>7561</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>11</v>
       </c>
-      <c r="D33" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33">
+      <c r="D33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
         <v>2</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>2</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="b">
-        <v>0</v>
-      </c>
-      <c r="K33" t="b">
-        <v>0</v>
-      </c>
-      <c r="L33" t="b">
-        <v>0</v>
-      </c>
-      <c r="M33" t="b">
+      <c r="H33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>7459</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>74</v>
       </c>
-      <c r="D34" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34">
+      <c r="D34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
         <v>9</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>6</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="b">
-        <v>1</v>
-      </c>
-      <c r="K34" t="b">
-        <v>1</v>
-      </c>
-      <c r="L34" t="b">
-        <v>0</v>
-      </c>
-      <c r="M34" t="b">
+      <c r="H34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>7458</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>304</v>
       </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35">
+      <c r="D35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
         <v>309</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>299</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="b">
-        <v>0</v>
-      </c>
-      <c r="K35" t="b">
-        <v>0</v>
-      </c>
-      <c r="L35" t="b">
-        <v>0</v>
-      </c>
-      <c r="M35" t="b">
+      <c r="H35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>6853</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>233</v>
       </c>
-      <c r="D36" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36">
+      <c r="D36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
         <v>13</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>10</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="b">
-        <v>1</v>
-      </c>
-      <c r="K36" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36" t="b">
-        <v>0</v>
-      </c>
-      <c r="M36" t="b">
+      <c r="H36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>6526</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>90</v>
       </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37">
+      <c r="D37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
         <v>5</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>5</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="b">
-        <v>0</v>
-      </c>
-      <c r="K37" t="b">
-        <v>1</v>
-      </c>
-      <c r="L37" t="b">
-        <v>0</v>
-      </c>
-      <c r="M37" t="b">
+      <c r="H37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>6479</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>189</v>
       </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38">
+      <c r="D38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
         <v>5</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>5</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H38" t="b">
-        <v>1</v>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="b">
-        <v>1</v>
-      </c>
-      <c r="K38" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38" t="b">
-        <v>0</v>
-      </c>
-      <c r="M38" t="b">
+      <c r="H38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>6349</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>41</v>
       </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39">
+      <c r="D39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
         <v>7</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>6</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="b">
-        <v>1</v>
-      </c>
-      <c r="K39" t="b">
-        <v>0</v>
-      </c>
-      <c r="L39" t="b">
-        <v>0</v>
-      </c>
-      <c r="M39" t="b">
+      <c r="H39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>6211</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>23</v>
       </c>
-      <c r="D40" t="b">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="D40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="b">
-        <v>0</v>
-      </c>
-      <c r="K40" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40" t="b">
-        <v>0</v>
-      </c>
-      <c r="M40" t="b">
+      <c r="H40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>5929</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>89</v>
       </c>
-      <c r="D41" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41">
+      <c r="D41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
         <v>5</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
         <v>4</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" t="b">
-        <v>1</v>
-      </c>
-      <c r="K41" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41" t="b">
-        <v>0</v>
-      </c>
-      <c r="M41" t="b">
+      <c r="H41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>5592</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>69</v>
       </c>
-      <c r="D42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="D42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="b">
-        <v>0</v>
-      </c>
-      <c r="K42" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42" t="b">
-        <v>0</v>
-      </c>
-      <c r="M42" t="b">
+      <c r="H42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>5535</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>27</v>
       </c>
-      <c r="D43" t="b">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="D43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="b">
-        <v>0</v>
-      </c>
-      <c r="K43" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" t="b">
-        <v>0</v>
-      </c>
-      <c r="M43" t="b">
+      <c r="H43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>5523</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>69</v>
       </c>
-      <c r="D44" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44">
+      <c r="D44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
         <v>11</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="1">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H44" t="b">
-        <v>1</v>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="b">
-        <v>0</v>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="b">
-        <v>0</v>
-      </c>
-      <c r="M44" t="b">
+      <c r="H44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>5413</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>80</v>
       </c>
-      <c r="D45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45">
+      <c r="D45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
         <v>3</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <v>3</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H45" t="b">
-        <v>1</v>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="b">
-        <v>0</v>
-      </c>
-      <c r="K45" t="b">
-        <v>0</v>
-      </c>
+      <c r="H45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>4728</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>140</v>
       </c>
-      <c r="D46" t="b">
-        <v>1</v>
-      </c>
-      <c r="E46">
+      <c r="D46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
         <v>3</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="1">
         <v>3</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="b">
-        <v>0</v>
-      </c>
-      <c r="K46" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" t="b">
-        <v>0</v>
-      </c>
-      <c r="M46" t="b">
+      <c r="H46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>4437</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>70</v>
       </c>
-      <c r="D47" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47">
+      <c r="D47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
         <v>4</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <v>3</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K47" t="b">
-        <v>0</v>
-      </c>
-      <c r="L47" t="b">
-        <v>0</v>
-      </c>
-      <c r="M47" t="b">
+      <c r="H47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>4295</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>51</v>
       </c>
-      <c r="D48" t="b">
-        <v>1</v>
-      </c>
-      <c r="E48">
+      <c r="D48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
         <v>2</v>
       </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="b">
-        <v>0</v>
-      </c>
-      <c r="K48" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" t="b">
-        <v>0</v>
-      </c>
-      <c r="M48" t="b">
+      <c r="H48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>4252</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>56</v>
       </c>
-      <c r="D49" t="b">
-        <v>1</v>
-      </c>
-      <c r="E49">
+      <c r="D49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1">
         <v>2</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="1">
         <v>2</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="b">
-        <v>0</v>
-      </c>
-      <c r="K49" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" t="b">
-        <v>0</v>
-      </c>
-      <c r="M49" t="b">
+      <c r="H49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>4191</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>162</v>
       </c>
-      <c r="D50" t="b">
-        <v>1</v>
-      </c>
-      <c r="E50">
+      <c r="D50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1">
         <v>13</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="1">
         <v>13</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="b">
-        <v>1</v>
-      </c>
-      <c r="K50" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" t="b">
-        <v>0</v>
-      </c>
-      <c r="M50" t="b">
+      <c r="H50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>4074</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>68</v>
       </c>
-      <c r="D51" t="b">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="D51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="b">
-        <v>0</v>
-      </c>
-      <c r="K51" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" t="b">
-        <v>0</v>
-      </c>
-      <c r="M51" t="b">
+      <c r="H51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1" t="b">
         <v>0</v>
       </c>
     </row>
